--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -1914,68 +1914,64 @@
     <t>HZERO前端 - 缓存目录</t>
   </si>
   <si>
-    <t>function SettingCache(){
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-          echo "==: 清空缓存目录：$TEMP_DIR"
-          rm -rf $TEMP_DIR
-        fi
-        if [ -f "$TEMP_DIR/dist_parent.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/dist_parent.tar.gz
-        fi
-        if [ -f "$TEMP_DIR/node_modules.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/node_modules.tar.gz
-        fi 
-        # yarn config set cache-folder $TEMP_DIR/yarn-cache
-        if [ -f "./dist_parent/.commitId" ]; then
-          export LAST_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 获取上一次 build 父项目时的 提交代码版本
-          export CURRENT_GIT_HEAD=`git log -1 --pretty=format:"%H"` # 获取当前提交代码版本
-          export YARN_LOCK_CHANGE_LOG=`git diff $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_GIT_HEAD  --shortstat -- yarn.lock` # 对比两次提交版本中的 yarn.lock 是否变化
-          if [[ -n "$YARN_LOCK_CHANGE_LOG" ]] ;then 
-              # 如果 yarn.lock 发生变化, 需要更新缓存。
-              echo -e "gitlab-ci -- yarn.lock 发生变化, 需要清除之前编译时留下来的缓存。\n\t $YARN_LOCK_CHANGE_LOG"
-              export CLEAR_TEMP_DIR=true
-              echo "==: yarn.lock 变更, 重新编译"
-          fi
-        else
+    <t>function cache(){
+    SettingCache;
+    node_build_parent;
+}
+function SettingCache(){
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+      echo "==: 清空缓存目录：$TEMP_DIR"
+      rm -rf $TEMP_DIR
+    fi
+    if [ -f "$TEMP_DIR/dist_parent.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/dist_parent.tar.gz
+    fi
+    if [ -f "$TEMP_DIR/node_modules.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/node_modules.tar.gz
+    fi 
+    # yarn config set cache-folder $TEMP_DIR/yarn-cache
+    if [ -f "./dist_parent/.commitId" ]; then
+      export LAST_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 获取上一次 build 父项目时的 提交代码版本
+      export CURRENT_GIT_HEAD=`git log -1 --pretty=format:"%H"` # 获取当前提交代码版本
+      export YARN_LOCK_CHANGE_LOG=`git diff $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_GIT_HEAD  --shortstat -- yarn.lock` # 对比两次提交版本中的 yarn.lock 是否变化
+      if [[ -n "$YARN_LOCK_CHANGE_LOG" ]] ;then 
+          # 如果 yarn.lock 发生变化, 需要更新缓存。
+          echo -e "gitlab-ci -- yarn.lock 发生变化, 需要清除之前编译时留下来的缓存。\n\t $YARN_LOCK_CHANGE_LOG"
           export CLEAR_TEMP_DIR=true
-          echo "==: 第一次编译（非增量编译）"
-        fi
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-          echo "==: 初始化缓存目录：$TEMP_DIR"
-          rm -rf $TEMP_DIR
-          echo "==: 开始安装依赖"
-          yarn install --no-progress --non-interactive
-          echo "==: 结束安装依赖"
-        fi
-        if [ ! -d "node_modules" ]; then
-          yarn install --no-progress --non-interactive
-        fi
-        npx hzero-cli info
-      }</t>
-  </si>
-  <si>
-    <t>devops_ci_pipeline_function-2</t>
-  </si>
-  <si>
-    <t>HZERO前端 - 构建父模块</t>
-  </si>
-  <si>
-    <t>function node_build_parent(){
-        echo "==: 开始编译"
-        npx cross-env BUILD_DIST_PATH=./dist_parent NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --all-packages --only-build-parent
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-           echo "==: 编译完成"
-           mkdir -p $TEMP_DIR
-           tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
-           tar -zcf $TEMP_DIR/node_modules.tar.gz ./node_modules
-        else
-           export CURRENT_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 当前 build 父项目时的 提交代码版本
-           if  [[ "$CURRENT_BUILD_PARENT_GIT_HEAD" != "$LAST_BUILD_PARENT_GIT_HEAD" ]] ;then
-             echo "更新 parent 缓存: $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_BUILD_PARENT_GIT_HEAD"
-             tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
-           fi
-        fi
-      }</t>
+          echo "==: yarn.lock 变更, 重新编译"
+      fi
+    else
+      export CLEAR_TEMP_DIR=true
+      echo "==: 第一次编译（非增量编译）"
+    fi
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+      echo "==: 初始化缓存目录：$TEMP_DIR"
+      rm -rf $TEMP_DIR
+      echo "==: 开始安装依赖"
+      yarn install --no-progress --non-interactive
+      echo "==: 结束安装依赖"
+    fi
+    if [ ! -d "node_modules" ]; then
+      yarn install --no-progress --non-interactive
+    fi
+    npx hzero-cli info
+  }
+  function node_build_parent(){
+    echo "==: 开始编译"
+    npx cross-env BUILD_DIST_PATH=./dist_parent NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --all-packages --only-build-parent
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+       echo "==: 编译完成"
+       mkdir -p $TEMP_DIR
+       tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
+       tar -zcf $TEMP_DIR/node_modules.tar.gz ./node_modules
+    else
+       export CURRENT_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 当前 build 父项目时的 提交代码版本
+       if  [[ "$CURRENT_BUILD_PARENT_GIT_HEAD" != "$LAST_BUILD_PARENT_GIT_HEAD" ]] ;then
+         echo "更新 parent 缓存: $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_BUILD_PARENT_GIT_HEAD"
+         tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
+       fi
+    fi
+  }</t>
   </si>
   <si>
     <t>devops_ci_pipeline_function-3</t>
@@ -1984,22 +1980,31 @@
     <t>HZERO前端 - 构建子模块</t>
   </si>
   <si>
-    <t>function node_build_packages(){
-        if [ -z "$1" ] ;then
-          echo "必须传入编译的子模块名称!"
-          exit 1
-        fi
-        if [[ -f "$TEMP_DIR/node_modules.tar.gz" ]] &amp;&amp; [[ ! -d "node_modules" ]]; then
-          tar -zxf $TEMP_DIR/node_modules.tar.gz
-        fi
-        if [ -f "$TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz
-        fi
-        echo "==: 开始编译:"$1
-        npx cross-env BUILD_DIST_PATH=./dist_${CI_NODE_INDEX:-1} NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --only-build-micro --build-skip-parent $1
-        echo "==: 编译完成"
-        tar -zcf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz ./dist_${CI_NODE_INDEX:-1}
-      }</t>
+    <t>function build_packages(){
+    export TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front
+    echo "gitlab-ci -- 缓存目录: $TEMP_DIR"
+    export BUILD_PACKAGES=`node ./scripts/gitlab_parallel_get_current_packages.js`;
+    if [ -z "$BUILD_PACKAGES" ]; then
+        exit
+    fi
+    node_build_packages $BUILD_PACKAGES
+}
+function node_build_packages(){
+    if [ -z "$1" ] ;then
+        echo "必须传入编译的子模块名称!"
+        exit 1
+    fi
+    if [[ -f "$TEMP_DIR/node_modules.tar.gz" ]] &amp;&amp; [[ ! -d "node_modules" ]]; then
+        tar -zxf $TEMP_DIR/node_modules.tar.gz
+    fi
+    if [ -f "$TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz
+    fi
+    echo "==: 开始编译:"$1
+    npx cross-env BUILD_DIST_PATH=./dist_${CI_NODE_INDEX:-1} NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --only-build-micro --build-skip-parent $1
+    echo "==: 编译完成"
+    tar -zcf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz ./dist_${CI_NODE_INDEX:-1}
+}</t>
   </si>
   <si>
     <t>devops_ci_pipeline_function-4</t>
@@ -2008,19 +2013,27 @@
     <t>HZERO前端 - 合并dist</t>
   </si>
   <si>
-    <t>function merge_packages(){
-          if [ -z "$1" ] ;then
-            echo "必须传入合并的dist文件路径!"
-            exit 1
-          fi
-          export MODULE_NAME=`echo $1 | sed -r "s/^.*dist_(.*)\.tar\.gz/\1/g"`
-          echo "==: 合并:"$MODULE_NAME
-          tar -zxf $TEMP_DIR/dist_$MODULE_NAME.tar.gz
-          mkdir -p ./dist/
-          cp -r -n -u dist_$MODULE_NAME/* ./dist/
-          rm -rf dist_$MODULE_NAME
-          # rm -rf $1
-        }</t>
+    <t>function merge_dist(){
+    export TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front
+    echo "gitlab-ci -- 缓存目录: $TEMP_DIR"
+    export -f merge_packages
+    find $TEMP_DIR -maxdepth 1 -name "dist_*.tar.gz" | xargs -n 1 -I {} bash -c "merge_packages {}"
+    node scripts/refreshMicroConfig.js
+    tar -zcf $TEMP_DIR/dist.tar.gz ./dist
+}
+function merge_packages(){
+    if [ -z "$1" ] ;then
+    echo "必须传入合并的dist文件路径!"
+    exit 1
+    fi
+    export MODULE_NAME=`echo $1 | sed -r "s/^.*dist_(.*)\.tar\.gz/\1/g"`
+    echo "==: 合并:"$MODULE_NAME
+    tar -zxf $TEMP_DIR/dist_$MODULE_NAME.tar.gz
+    mkdir -p ./dist/
+    cp -r -n -u dist_$MODULE_NAME/* ./dist/
+    rm -rf dist_$MODULE_NAME
+    # rm -rf $1
+}</t>
   </si>
 </sst>
 </file>
@@ -2028,12 +2041,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2062,12 +2075,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2109,36 +2116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,7 +2138,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2167,9 +2166,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,14 +2213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2215,6 +2229,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2230,39 +2259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2286,13 +2287,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2305,12 +2299,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2354,19 +2342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,7 +2360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,19 +2390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2414,7 +2402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,13 +2432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,7 +2474,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,79 +2504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,21 +2630,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2686,6 +2659,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2706,6 +2709,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2714,190 +2726,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2905,44 +2892,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2955,7 +2942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3100,7 +3087,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3358,10 +3345,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
     <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
     <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
@@ -3375,79 +3362,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3455,56 +3442,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3514,64 +3501,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3594,10 +3581,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -3675,7 +3662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="87" customHeight="1" spans="5:8">
+    <row r="9" ht="100" customHeight="1" spans="5:8">
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
@@ -3689,7 +3676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="5:8">
+    <row r="10" ht="111" customHeight="1" spans="5:8">
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
@@ -3703,35 +3690,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" ht="111" customHeight="1" spans="5:8">
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="11" spans="5:7">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="6:6">
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="6:6">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
@@ -1915,6 +1915,8 @@
   </si>
   <si>
     <t>function cache(){
+    TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front;
+    echo "缓存目录：$TEMP_DIR";
     SettingCache;
     node_build_parent;
 }
@@ -2115,6 +2117,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2129,45 +2169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2181,19 +2184,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2213,22 +2223,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2238,7 +2232,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2254,13 +2263,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,13 +2344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,25 +2374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,37 +2398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,7 +2434,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,49 +2488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2504,25 +2524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,6 +2661,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2674,6 +2685,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2685,24 +2705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2732,10 +2734,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2744,34 +2746,31 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2780,97 +2779,100 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3584,7 +3586,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>

--- a/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/devops_service/devops_ci_pipeline_default_function.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -1914,68 +1914,66 @@
     <t>HZERO前端 - 缓存目录</t>
   </si>
   <si>
-    <t>function SettingCache(){
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-          echo "==: 清空缓存目录：$TEMP_DIR"
-          rm -rf $TEMP_DIR
-        fi
-        if [ -f "$TEMP_DIR/dist_parent.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/dist_parent.tar.gz
-        fi
-        if [ -f "$TEMP_DIR/node_modules.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/node_modules.tar.gz
-        fi 
-        # yarn config set cache-folder $TEMP_DIR/yarn-cache
-        if [ -f "./dist_parent/.commitId" ]; then
-          export LAST_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 获取上一次 build 父项目时的 提交代码版本
-          export CURRENT_GIT_HEAD=`git log -1 --pretty=format:"%H"` # 获取当前提交代码版本
-          export YARN_LOCK_CHANGE_LOG=`git diff $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_GIT_HEAD  --shortstat -- yarn.lock` # 对比两次提交版本中的 yarn.lock 是否变化
-          if [[ -n "$YARN_LOCK_CHANGE_LOG" ]] ;then 
-              # 如果 yarn.lock 发生变化, 需要更新缓存。
-              echo -e "gitlab-ci -- yarn.lock 发生变化, 需要清除之前编译时留下来的缓存。\n\t $YARN_LOCK_CHANGE_LOG"
-              export CLEAR_TEMP_DIR=true
-              echo "==: yarn.lock 变更, 重新编译"
-          fi
-        else
+    <t>function cache(){
+    TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front;
+    echo "缓存目录：$TEMP_DIR";
+    SettingCache;
+    node_build_parent;
+}
+function SettingCache(){
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+      echo "==: 清空缓存目录：$TEMP_DIR"
+      rm -rf $TEMP_DIR
+    fi
+    if [ -f "$TEMP_DIR/dist_parent.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/dist_parent.tar.gz
+    fi
+    if [ -f "$TEMP_DIR/node_modules.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/node_modules.tar.gz
+    fi 
+    # yarn config set cache-folder $TEMP_DIR/yarn-cache
+    if [ -f "./dist_parent/.commitId" ]; then
+      export LAST_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 获取上一次 build 父项目时的 提交代码版本
+      export CURRENT_GIT_HEAD=`git log -1 --pretty=format:"%H"` # 获取当前提交代码版本
+      export YARN_LOCK_CHANGE_LOG=`git diff $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_GIT_HEAD  --shortstat -- yarn.lock` # 对比两次提交版本中的 yarn.lock 是否变化
+      if [[ -n "$YARN_LOCK_CHANGE_LOG" ]] ;then 
+          # 如果 yarn.lock 发生变化, 需要更新缓存。
+          echo -e "gitlab-ci -- yarn.lock 发生变化, 需要清除之前编译时留下来的缓存。\n\t $YARN_LOCK_CHANGE_LOG"
           export CLEAR_TEMP_DIR=true
-          echo "==: 第一次编译（非增量编译）"
-        fi
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-          echo "==: 初始化缓存目录：$TEMP_DIR"
-          rm -rf $TEMP_DIR
-          echo "==: 开始安装依赖"
-          yarn install --no-progress --non-interactive
-          echo "==: 结束安装依赖"
-        fi
-        if [ ! -d "node_modules" ]; then
-          yarn install --no-progress --non-interactive
-        fi
-        npx hzero-cli info
-      }</t>
-  </si>
-  <si>
-    <t>devops_ci_pipeline_function-2</t>
-  </si>
-  <si>
-    <t>HZERO前端 - 构建父模块</t>
-  </si>
-  <si>
-    <t>function node_build_parent(){
-        echo "==: 开始编译"
-        npx cross-env BUILD_DIST_PATH=./dist_parent NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --all-packages --only-build-parent
-        if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
-           echo "==: 编译完成"
-           mkdir -p $TEMP_DIR
-           tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
-           tar -zcf $TEMP_DIR/node_modules.tar.gz ./node_modules
-        else
-           export CURRENT_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 当前 build 父项目时的 提交代码版本
-           if  [[ "$CURRENT_BUILD_PARENT_GIT_HEAD" != "$LAST_BUILD_PARENT_GIT_HEAD" ]] ;then
-             echo "更新 parent 缓存: $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_BUILD_PARENT_GIT_HEAD"
-             tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
-           fi
-        fi
-      }</t>
+          echo "==: yarn.lock 变更, 重新编译"
+      fi
+    else
+      export CLEAR_TEMP_DIR=true
+      echo "==: 第一次编译（非增量编译）"
+    fi
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+      echo "==: 初始化缓存目录：$TEMP_DIR"
+      rm -rf $TEMP_DIR
+      echo "==: 开始安装依赖"
+      yarn install --no-progress --non-interactive
+      echo "==: 结束安装依赖"
+    fi
+    if [ ! -d "node_modules" ]; then
+      yarn install --no-progress --non-interactive
+    fi
+    npx hzero-cli info
+  }
+  function node_build_parent(){
+    echo "==: 开始编译"
+    npx cross-env BUILD_DIST_PATH=./dist_parent NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --all-packages --only-build-parent
+    if  [[ $CLEAR_TEMP_DIR =~ "true" ]] ;then
+       echo "==: 编译完成"
+       mkdir -p $TEMP_DIR
+       tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
+       tar -zcf $TEMP_DIR/node_modules.tar.gz ./node_modules
+    else
+       export CURRENT_BUILD_PARENT_GIT_HEAD=`cat ./dist_parent/.commitId` # 当前 build 父项目时的 提交代码版本
+       if  [[ "$CURRENT_BUILD_PARENT_GIT_HEAD" != "$LAST_BUILD_PARENT_GIT_HEAD" ]] ;then
+         echo "更新 parent 缓存: $LAST_BUILD_PARENT_GIT_HEAD $CURRENT_BUILD_PARENT_GIT_HEAD"
+         tar -zcf $TEMP_DIR/dist_parent.tar.gz ./dist_parent
+       fi
+    fi
+  }</t>
   </si>
   <si>
     <t>devops_ci_pipeline_function-3</t>
@@ -1984,22 +1982,31 @@
     <t>HZERO前端 - 构建子模块</t>
   </si>
   <si>
-    <t>function node_build_packages(){
-        if [ -z "$1" ] ;then
-          echo "必须传入编译的子模块名称!"
-          exit 1
-        fi
-        if [[ -f "$TEMP_DIR/node_modules.tar.gz" ]] &amp;&amp; [[ ! -d "node_modules" ]]; then
-          tar -zxf $TEMP_DIR/node_modules.tar.gz
-        fi
-        if [ -f "$TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz" ]; then
-            tar -zxf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz
-        fi
-        echo "==: 开始编译:"$1
-        npx cross-env BUILD_DIST_PATH=./dist_${CI_NODE_INDEX:-1} NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --only-build-micro --build-skip-parent $1
-        echo "==: 编译完成"
-        tar -zcf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz ./dist_${CI_NODE_INDEX:-1}
-      }</t>
+    <t>function build_packages(){
+    export TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front
+    echo "gitlab-ci -- 缓存目录: $TEMP_DIR"
+    export BUILD_PACKAGES=`node ./scripts/gitlab_parallel_get_current_packages.js`;
+    if [ -z "$BUILD_PACKAGES" ]; then
+        exit
+    fi
+    node_build_packages $BUILD_PACKAGES
+}
+function node_build_packages(){
+    if [ -z "$1" ] ;then
+        echo "必须传入编译的子模块名称!"
+        exit 1
+    fi
+    if [[ -f "$TEMP_DIR/node_modules.tar.gz" ]] &amp;&amp; [[ ! -d "node_modules" ]]; then
+        tar -zxf $TEMP_DIR/node_modules.tar.gz
+    fi
+    if [ -f "$TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz" ]; then
+        tar -zxf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz
+    fi
+    echo "==: 开始编译:"$1
+    npx cross-env BUILD_DIST_PATH=./dist_${CI_NODE_INDEX:-1} NODE_OPTIONS='--max_old_space_size=8196' NODE_PROFILE=production hzero-cli build --only-build-micro --build-skip-parent $1
+    echo "==: 编译完成"
+    tar -zcf $TEMP_DIR/dist_${CI_NODE_INDEX:-1}.tar.gz ./dist_${CI_NODE_INDEX:-1}
+}</t>
   </si>
   <si>
     <t>devops_ci_pipeline_function-4</t>
@@ -2008,19 +2015,27 @@
     <t>HZERO前端 - 合并dist</t>
   </si>
   <si>
-    <t>function merge_packages(){
-          if [ -z "$1" ] ;then
-            echo "必须传入合并的dist文件路径!"
-            exit 1
-          fi
-          export MODULE_NAME=`echo $1 | sed -r "s/^.*dist_(.*)\.tar\.gz/\1/g"`
-          echo "==: 合并:"$MODULE_NAME
-          tar -zxf $TEMP_DIR/dist_$MODULE_NAME.tar.gz
-          mkdir -p ./dist/
-          cp -r -n -u dist_$MODULE_NAME/* ./dist/
-          rm -rf dist_$MODULE_NAME
-          # rm -rf $1
-        }</t>
+    <t>function merge_dist(){
+    export TEMP_DIR=/cache/${CI_PROJECT_NAME}-${CI_PROJECT_ID}-${CI_COMMIT_REF_NAME}-front
+    echo "gitlab-ci -- 缓存目录: $TEMP_DIR"
+    export -f merge_packages
+    find $TEMP_DIR -maxdepth 1 -name "dist_*.tar.gz" | xargs -n 1 -I {} bash -c "merge_packages {}"
+    node scripts/refreshMicroConfig.js
+    tar -zcf $TEMP_DIR/dist.tar.gz ./dist
+}
+function merge_packages(){
+    if [ -z "$1" ] ;then
+    echo "必须传入合并的dist文件路径!"
+    exit 1
+    fi
+    export MODULE_NAME=`echo $1 | sed -r "s/^.*dist_(.*)\.tar\.gz/\1/g"`
+    echo "==: 合并:"$MODULE_NAME
+    tar -zxf $TEMP_DIR/dist_$MODULE_NAME.tar.gz
+    mkdir -p ./dist/
+    cp -r -n -u dist_$MODULE_NAME/* ./dist/
+    rm -rf dist_$MODULE_NAME
+    # rm -rf $1
+}</t>
   </si>
 </sst>
 </file>
@@ -2028,12 +2043,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2062,12 +2077,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2108,10 +2117,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2123,15 +2170,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2152,26 +2199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2199,22 +2231,28 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2228,41 +2266,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2286,13 +2289,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2305,12 +2301,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2354,13 +2344,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,91 +2452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2474,13 +2470,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2492,49 +2518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,21 +2632,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2695,26 +2670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2733,171 +2688,205 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2905,44 +2894,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2955,7 +2944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3100,7 +3089,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3358,10 +3347,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
     <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
     <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
@@ -3375,79 +3364,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3455,56 +3444,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3514,64 +3503,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3594,10 +3583,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -3675,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="87" customHeight="1" spans="5:8">
+    <row r="9" ht="100" customHeight="1" spans="5:8">
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
@@ -3689,7 +3678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="5:8">
+    <row r="10" ht="111" customHeight="1" spans="5:8">
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
@@ -3703,35 +3692,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" ht="111" customHeight="1" spans="5:8">
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="11" spans="5:7">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="6:6">
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="6:6">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
